--- a/biology/Botanique/Aegiphila/Aegiphila.xlsx
+++ b/biology/Botanique/Aegiphila/Aegiphila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aegiphila est un genre de plantes de la famille des Lamiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (24 juin 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (24 juin 2018) :
 Aegiphila elata Sw.
 Aegiphila glomerata Benth.
 Aegiphila integrifolia (Jacq.) Jacq.
@@ -523,7 +537,7 @@
 Aegiphila purpurascens Moldenke
 Aegiphila rimbachii Moldenke
 Aegiphila skutchii Moldenke
-Selon Catalogue of Life                                   (24 juin 2018)[3] :
+Selon Catalogue of Life                                   (24 juin 2018) :
 Aegiphila aculeifera Moldenke
 Aegiphila alba Moldenke
 Aegiphila anomala Pittier
@@ -674,11 +688,11 @@
 Aegiphila vitelliniflora Klotzsch
 Aegiphila volubilis Moldenke
 Aegiphila wigandioides Lundell
-Selon ITIS      (24 juin 2018)[4] :
+Selon ITIS      (24 juin 2018) :
 Aegiphila elata Sw.
 Aegiphila integrifolia (Jacq.) B.D. Jacks.
 Aegiphila martinicensis Jacq.
-Selon World Checklist of Selected Plant Families (WCSP)  (24 juin 2018)[5] :
+Selon World Checklist of Selected Plant Families (WCSP)  (24 juin 2018) :
 Aegiphila aculeifera Moldenke (1934)
 Aegiphila alba Moldenke (1937)
 Aegiphila anomala Pittier (1909)
@@ -849,7 +863,7 @@
 Aegiphila vitelliniflora Klotzsch (1845)
 Aegiphila volubilis Moldenke (1984)
 Aegiphila wigandioides Lundell (1942)
-Selon The Plant List            (24 juin 2018)[6] :
+Selon The Plant List            (24 juin 2018) :
 Aegiphila aculeifera Moldenke
 Aegiphila alba Moldenke
 Aegiphila anomala Pittier
@@ -1000,7 +1014,7 @@
 Aegiphila vitelliniflora Klotzsch
 Aegiphila volubilis Moldenke
 Aegiphila wigandioides Lundell
-Selon Tropicos                                           (24 juin 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (24 juin 2018) (Attention liste brute contenant possiblement des synonymes) :
 Aegiphila aculeifera Moldenke
 Aegiphila alba Moldenke
 Aegiphila amazonica Moldenke
